--- a/BTL_TKXDPM/src/main/java/com/btl_tkxdpm/cham_cong_data (2).xlsx
+++ b/BTL_TKXDPM/src/main/java/com/btl_tkxdpm/cham_cong_data (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuanhduc/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vuanhduc/Downloads/TKXDPM/BTL_TKXDPM/src/main/java/com/btl_tkxdpm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF366714-15E2-3C4C-98A4-6A74FAC05888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C87B98-FFFC-1547-86AE-BF94989DB25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="145">
   <si>
     <t>Mã nhân viên</t>
   </si>
@@ -354,6 +354,120 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>I39</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>I37</t>
+  </si>
+  <si>
+    <t>I32</t>
+  </si>
+  <si>
+    <t>I36</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>I35</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>I33</t>
+  </si>
+  <si>
+    <t>I40</t>
+  </si>
+  <si>
+    <t>I27</t>
+  </si>
+  <si>
+    <t>I23</t>
+  </si>
+  <si>
+    <t>I18</t>
+  </si>
+  <si>
+    <t>I21</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I26</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>I28</t>
+  </si>
+  <si>
+    <t>I0</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I17</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I22</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I38</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I31</t>
+  </si>
+  <si>
+    <t>I29</t>
+  </si>
+  <si>
+    <t>I34</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I24</t>
+  </si>
+  <si>
+    <t>I25</t>
+  </si>
+  <si>
+    <t>I16</t>
+  </si>
+  <si>
+    <t>I1</t>
   </si>
 </sst>
 </file>
@@ -430,7 +544,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -735,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -765,9 +879,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f ca="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I40</v>
+      <c r="A2" t="s">
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>45288</v>
@@ -783,9 +896,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="str">
-        <f ca="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I13</v>
+      <c r="A3" t="s">
+        <v>109</v>
       </c>
       <c r="B3" s="2">
         <v>45284</v>
@@ -801,9 +913,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="str">
-        <f t="shared" ref="A4:A67" ca="1" si="0">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I13</v>
+      <c r="A4" t="s">
+        <v>110</v>
       </c>
       <c r="B4" s="2">
         <v>45271</v>
@@ -819,9 +930,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I13</v>
+      <c r="A5" t="s">
+        <v>110</v>
       </c>
       <c r="B5" s="2">
         <v>45271</v>
@@ -837,9 +947,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+      <c r="A6" t="s">
+        <v>109</v>
       </c>
       <c r="B6" s="2">
         <v>45274</v>
@@ -855,9 +964,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I40</v>
+      <c r="A7" t="s">
+        <v>111</v>
       </c>
       <c r="B7" s="2">
         <v>45264</v>
@@ -873,9 +981,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I38</v>
+      <c r="A8" t="s">
+        <v>112</v>
       </c>
       <c r="B8" s="2">
         <v>45286</v>
@@ -891,9 +998,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I19</v>
+      <c r="A9" t="s">
+        <v>113</v>
       </c>
       <c r="B9" s="2">
         <v>45270</v>
@@ -909,9 +1015,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I40</v>
+      <c r="A10" t="s">
+        <v>114</v>
       </c>
       <c r="B10" s="2">
         <v>45273</v>
@@ -927,9 +1032,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I24</v>
+      <c r="A11" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="2">
         <v>45262</v>
@@ -945,9 +1049,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+      <c r="A12" t="s">
+        <v>116</v>
       </c>
       <c r="B12" s="2">
         <v>45277</v>
@@ -963,9 +1066,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I8</v>
+      <c r="A13" t="s">
+        <v>117</v>
       </c>
       <c r="B13" s="2">
         <v>45270</v>
@@ -981,9 +1083,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+      <c r="A14" t="s">
+        <v>118</v>
       </c>
       <c r="B14" s="2">
         <v>45285</v>
@@ -999,9 +1100,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I24</v>
+      <c r="A15" t="s">
+        <v>119</v>
       </c>
       <c r="B15" s="2">
         <v>45271</v>
@@ -1017,9 +1117,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+      <c r="A16" t="s">
+        <v>120</v>
       </c>
       <c r="B16" s="2">
         <v>45271</v>
@@ -1035,9 +1134,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I1</v>
+      <c r="A17" t="s">
+        <v>119</v>
       </c>
       <c r="B17" s="2">
         <v>45260</v>
@@ -1053,9 +1151,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I29</v>
+      <c r="A18" t="s">
+        <v>107</v>
       </c>
       <c r="B18" s="2">
         <v>45262</v>
@@ -1071,9 +1168,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I9</v>
+      <c r="A19" t="s">
+        <v>119</v>
       </c>
       <c r="B19" s="2">
         <v>45264</v>
@@ -1089,9 +1185,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I6</v>
+      <c r="A20" t="s">
+        <v>121</v>
       </c>
       <c r="B20" s="2">
         <v>45276</v>
@@ -1107,9 +1202,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I28</v>
+      <c r="A21" t="s">
+        <v>122</v>
       </c>
       <c r="B21" s="2">
         <v>45284</v>
@@ -1125,9 +1219,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I22</v>
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
       <c r="B22" s="2">
         <v>45282</v>
@@ -1143,9 +1236,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I34</v>
+      <c r="A23" t="s">
+        <v>119</v>
       </c>
       <c r="B23" s="2">
         <v>45262</v>
@@ -1161,9 +1253,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I36</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
       <c r="B24" s="2">
         <v>45262</v>
@@ -1179,9 +1270,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I16</v>
+      <c r="A25" t="s">
+        <v>125</v>
       </c>
       <c r="B25" s="2">
         <v>45283</v>
@@ -1197,9 +1287,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I34</v>
+      <c r="A26" t="s">
+        <v>124</v>
       </c>
       <c r="B26" s="2">
         <v>45287</v>
@@ -1215,9 +1304,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I39</v>
+      <c r="A27" t="s">
+        <v>126</v>
       </c>
       <c r="B27" s="2">
         <v>45285</v>
@@ -1233,9 +1321,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I31</v>
+      <c r="A28" t="s">
+        <v>127</v>
       </c>
       <c r="B28" s="2">
         <v>45284</v>
@@ -1251,9 +1338,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I28</v>
+      <c r="A29" t="s">
+        <v>128</v>
       </c>
       <c r="B29" s="2">
         <v>45288</v>
@@ -1269,9 +1355,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I13</v>
+      <c r="A30" t="s">
+        <v>127</v>
       </c>
       <c r="B30" s="2">
         <v>45263</v>
@@ -1287,9 +1372,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I31</v>
+      <c r="A31" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="2">
         <v>45260</v>
@@ -1305,9 +1389,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I37</v>
+      <c r="A32" t="s">
+        <v>110</v>
       </c>
       <c r="B32" s="2">
         <v>45277</v>
@@ -1323,9 +1406,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I30</v>
+      <c r="A33" t="s">
+        <v>113</v>
       </c>
       <c r="B33" s="2">
         <v>45282</v>
@@ -1341,9 +1423,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I10</v>
+      <c r="A34" t="s">
+        <v>117</v>
       </c>
       <c r="B34" s="2">
         <v>45277</v>
@@ -1359,9 +1440,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I15</v>
+      <c r="A35" t="s">
+        <v>129</v>
       </c>
       <c r="B35" s="2">
         <v>45288</v>
@@ -1377,9 +1457,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I32</v>
+      <c r="A36" t="s">
+        <v>130</v>
       </c>
       <c r="B36" s="2">
         <v>45273</v>
@@ -1395,9 +1474,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+      <c r="A37" t="s">
+        <v>118</v>
       </c>
       <c r="B37" s="2">
         <v>45272</v>
@@ -1413,9 +1491,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I36</v>
+      <c r="A38" t="s">
+        <v>131</v>
       </c>
       <c r="B38" s="2">
         <v>45281</v>
@@ -1431,9 +1508,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I34</v>
+      <c r="A39" t="s">
+        <v>125</v>
       </c>
       <c r="B39" s="2">
         <v>45282</v>
@@ -1449,9 +1525,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I26</v>
+      <c r="A40" t="s">
+        <v>132</v>
       </c>
       <c r="B40" s="2">
         <v>45264</v>
@@ -1467,9 +1542,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I36</v>
+      <c r="A41" t="s">
+        <v>123</v>
       </c>
       <c r="B41" s="2">
         <v>45279</v>
@@ -1485,9 +1559,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I11</v>
+      <c r="A42" t="s">
+        <v>111</v>
       </c>
       <c r="B42" s="2">
         <v>45268</v>
@@ -1503,9 +1576,8 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I9</v>
+      <c r="A43" t="s">
+        <v>116</v>
       </c>
       <c r="B43" s="2">
         <v>45285</v>
@@ -1521,9 +1593,8 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+      <c r="A44" t="s">
+        <v>133</v>
       </c>
       <c r="B44" s="2">
         <v>45285</v>
@@ -1539,9 +1610,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+      <c r="A45" t="s">
+        <v>131</v>
       </c>
       <c r="B45" s="2">
         <v>45275</v>
@@ -1557,9 +1627,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I13</v>
+      <c r="A46" t="s">
+        <v>128</v>
       </c>
       <c r="B46" s="2">
         <v>45288</v>
@@ -1575,9 +1644,8 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I19</v>
+      <c r="A47" t="s">
+        <v>111</v>
       </c>
       <c r="B47" s="2">
         <v>45285</v>
@@ -1593,9 +1661,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I40</v>
+      <c r="A48" t="s">
+        <v>132</v>
       </c>
       <c r="B48" s="2">
         <v>45267</v>
@@ -1611,9 +1678,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I38</v>
+      <c r="A49" t="s">
+        <v>126</v>
       </c>
       <c r="B49" s="2">
         <v>45275</v>
@@ -1629,9 +1695,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I40</v>
+      <c r="A50" t="s">
+        <v>134</v>
       </c>
       <c r="B50" s="2">
         <v>45285</v>
@@ -1647,9 +1712,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I28</v>
+      <c r="A51" t="s">
+        <v>131</v>
       </c>
       <c r="B51" s="2">
         <v>45272</v>
@@ -1665,9 +1729,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I30</v>
+      <c r="A52" t="s">
+        <v>128</v>
       </c>
       <c r="B52" s="2">
         <v>45265</v>
@@ -1683,9 +1746,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I9</v>
+      <c r="A53" t="s">
+        <v>133</v>
       </c>
       <c r="B53" s="2">
         <v>45283</v>
@@ -1701,9 +1763,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I36</v>
+      <c r="A54" t="s">
+        <v>129</v>
       </c>
       <c r="B54" s="2">
         <v>45287</v>
@@ -1719,9 +1780,8 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I21</v>
+      <c r="A55" t="s">
+        <v>135</v>
       </c>
       <c r="B55" s="2">
         <v>45265</v>
@@ -1737,9 +1797,8 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I2</v>
+      <c r="A56" t="s">
+        <v>129</v>
       </c>
       <c r="B56" s="2">
         <v>45272</v>
@@ -1755,9 +1814,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I6</v>
+      <c r="A57" t="s">
+        <v>110</v>
       </c>
       <c r="B57" s="2">
         <v>45275</v>
@@ -1773,9 +1831,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+      <c r="A58" t="s">
+        <v>113</v>
       </c>
       <c r="B58" s="2">
         <v>45266</v>
@@ -1791,9 +1848,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I20</v>
+      <c r="A59" t="s">
+        <v>135</v>
       </c>
       <c r="B59" s="2">
         <v>45262</v>
@@ -1809,9 +1865,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I13</v>
+      <c r="A60" t="s">
+        <v>130</v>
       </c>
       <c r="B60" s="2">
         <v>45277</v>
@@ -1827,9 +1882,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I23</v>
+      <c r="A61" t="s">
+        <v>112</v>
       </c>
       <c r="B61" s="2">
         <v>45269</v>
@@ -1845,9 +1899,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I19</v>
+      <c r="A62" t="s">
+        <v>116</v>
       </c>
       <c r="B62" s="2">
         <v>45286</v>
@@ -1863,9 +1916,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I11</v>
+      <c r="A63" t="s">
+        <v>119</v>
       </c>
       <c r="B63" s="2">
         <v>45270</v>
@@ -1881,9 +1933,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I2</v>
+      <c r="A64" t="s">
+        <v>108</v>
       </c>
       <c r="B64" s="2">
         <v>45268</v>
@@ -1899,9 +1950,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I5</v>
+      <c r="A65" t="s">
+        <v>114</v>
       </c>
       <c r="B65" s="2">
         <v>45286</v>
@@ -1917,9 +1967,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I5</v>
+      <c r="A66" t="s">
+        <v>136</v>
       </c>
       <c r="B66" s="2">
         <v>45269</v>
@@ -1935,9 +1984,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>I3</v>
+      <c r="A67" t="s">
+        <v>121</v>
       </c>
       <c r="B67" s="2">
         <v>45285</v>
@@ -1953,9 +2001,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
-        <f t="shared" ref="A68:A101" ca="1" si="1">"I" &amp; RANDBETWEEN(0, 40)</f>
-        <v>I1</v>
+      <c r="A68" t="s">
+        <v>130</v>
       </c>
       <c r="B68" s="2">
         <v>45271</v>
@@ -1971,9 +2018,8 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I38</v>
+      <c r="A69" t="s">
+        <v>132</v>
       </c>
       <c r="B69" s="2">
         <v>45280</v>
@@ -1989,9 +2035,8 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I10</v>
+      <c r="A70" t="s">
+        <v>117</v>
       </c>
       <c r="B70" s="2">
         <v>45287</v>
@@ -2007,9 +2052,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I34</v>
+      <c r="A71" t="s">
+        <v>137</v>
       </c>
       <c r="B71" s="2">
         <v>45279</v>
@@ -2025,9 +2069,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I7</v>
+      <c r="A72" t="s">
+        <v>122</v>
       </c>
       <c r="B72" s="2">
         <v>45261</v>
@@ -2043,9 +2086,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I27</v>
+      <c r="A73" t="s">
+        <v>108</v>
       </c>
       <c r="B73" s="2">
         <v>45288</v>
@@ -2061,9 +2103,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I22</v>
+      <c r="A74" t="s">
+        <v>138</v>
       </c>
       <c r="B74" s="2">
         <v>45284</v>
@@ -2079,9 +2120,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I7</v>
+      <c r="A75" t="s">
+        <v>121</v>
       </c>
       <c r="B75" s="2">
         <v>45269</v>
@@ -2097,9 +2137,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I25</v>
+      <c r="A76" t="s">
+        <v>130</v>
       </c>
       <c r="B76" s="2">
         <v>45275</v>
@@ -2115,9 +2154,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I39</v>
+      <c r="A77" t="s">
+        <v>121</v>
       </c>
       <c r="B77" s="2">
         <v>45286</v>
@@ -2133,9 +2171,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I10</v>
+      <c r="A78" t="s">
+        <v>114</v>
       </c>
       <c r="B78" s="2">
         <v>45283</v>
@@ -2151,9 +2188,8 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I23</v>
+      <c r="A79" t="s">
+        <v>139</v>
       </c>
       <c r="B79" s="2">
         <v>45279</v>
@@ -2169,9 +2205,8 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I12</v>
+      <c r="A80" t="s">
+        <v>117</v>
       </c>
       <c r="B80" s="2">
         <v>45270</v>
@@ -2187,9 +2222,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I1</v>
+      <c r="A81" t="s">
+        <v>136</v>
       </c>
       <c r="B81" s="2">
         <v>45276</v>
@@ -2205,9 +2239,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I36</v>
+      <c r="A82" t="s">
+        <v>110</v>
       </c>
       <c r="B82" s="2">
         <v>45277</v>
@@ -2223,9 +2256,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I35</v>
+      <c r="A83" t="s">
+        <v>117</v>
       </c>
       <c r="B83" s="2">
         <v>45278</v>
@@ -2241,9 +2273,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I2</v>
+      <c r="A84" t="s">
+        <v>131</v>
       </c>
       <c r="B84" s="2">
         <v>45286</v>
@@ -2259,9 +2290,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I31</v>
+      <c r="A85" t="s">
+        <v>138</v>
       </c>
       <c r="B85" s="2">
         <v>45285</v>
@@ -2277,9 +2307,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I13</v>
+      <c r="A86" t="s">
+        <v>140</v>
       </c>
       <c r="B86" s="2">
         <v>45288</v>
@@ -2295,9 +2324,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I23</v>
+      <c r="A87" t="s">
+        <v>141</v>
       </c>
       <c r="B87" s="2">
         <v>45262</v>
@@ -2313,9 +2341,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I10</v>
+      <c r="A88" t="s">
+        <v>118</v>
       </c>
       <c r="B88" s="2">
         <v>45275</v>
@@ -2331,9 +2358,8 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I29</v>
+      <c r="A89" t="s">
+        <v>110</v>
       </c>
       <c r="B89" s="2">
         <v>45280</v>
@@ -2349,9 +2375,8 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I7</v>
+      <c r="A90" t="s">
+        <v>109</v>
       </c>
       <c r="B90" s="2">
         <v>45268</v>
@@ -2367,9 +2392,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I39</v>
+      <c r="A91" t="s">
+        <v>142</v>
       </c>
       <c r="B91" s="2">
         <v>45278</v>
@@ -2385,9 +2409,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I22</v>
+      <c r="A92" t="s">
+        <v>134</v>
       </c>
       <c r="B92" s="2">
         <v>45285</v>
@@ -2403,9 +2426,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I0</v>
+      <c r="A93" t="s">
+        <v>130</v>
       </c>
       <c r="B93" s="2">
         <v>45268</v>
@@ -2421,9 +2443,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I11</v>
+      <c r="A94" t="s">
+        <v>120</v>
       </c>
       <c r="B94" s="2">
         <v>45276</v>
@@ -2439,9 +2460,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I12</v>
+      <c r="A95" t="s">
+        <v>143</v>
       </c>
       <c r="B95" s="2">
         <v>45263</v>
@@ -2457,9 +2477,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I16</v>
+      <c r="A96" t="s">
+        <v>141</v>
       </c>
       <c r="B96" s="2">
         <v>45281</v>
@@ -2475,9 +2494,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I11</v>
+      <c r="A97" t="s">
+        <v>138</v>
       </c>
       <c r="B97" s="2">
         <v>45262</v>
@@ -2493,9 +2511,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I29</v>
+      <c r="A98" t="s">
+        <v>138</v>
       </c>
       <c r="B98" s="2">
         <v>45280</v>
@@ -2504,16 +2521,15 @@
         <v>102</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E98">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I6</v>
+      <c r="A99" t="s">
+        <v>142</v>
       </c>
       <c r="B99" s="2">
         <v>45271</v>
@@ -2529,9 +2545,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I23</v>
+      <c r="A100" t="s">
+        <v>144</v>
       </c>
       <c r="B100" s="2">
         <v>45274</v>
@@ -2547,9 +2562,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>I14</v>
+      <c r="A101" t="s">
+        <v>119</v>
       </c>
       <c r="B101" s="2">
         <v>45266</v>
@@ -2558,10 +2572,44 @@
         <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>142</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45274</v>
+      </c>
+      <c r="C102" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45266</v>
+      </c>
+      <c r="C103" t="s">
+        <v>91</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
